--- a/static/exports/test.xlsx
+++ b/static/exports/test.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,3129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mall_type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>category_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mall_name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>delete</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>쿠팡은 0;;30101</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>쿠팡은 0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/5079339241?isAddedCart=</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>쿠팡은 0</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>99</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>demelab;;30101.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>도매연구소</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/demelab/category/50000000?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>80</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>100</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>lulu-j;;30101.0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>룰루제이</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/lulu-j/category/71920bac34f8406387e48ca74d5bc3d0?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>80</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>101</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>bienmarket;;30101.0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>드비앙스</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/bienmarket/category/ce6345150d47476a9a0ad335c2050820?st=POPULAR&amp;free=false&amp;dt=LIST&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>80</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>102</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>l_theland;;30101.0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>엘더랜드</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/l_theland/category/b4f4e605b54e415781574a801c29a2a8?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>80</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>103</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>topcross;;30101.0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Top Cross</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/topcross/category/50000000?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>80</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>104</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>marketsand;;30101.0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>마켓샌드</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/marketsand/category/50000001?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>80</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>105</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>flace;;30101.0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FLACE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/flace/category/a330c018d0744186a11de8c038fb6421?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>80</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>106</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>elohimtextile;;30101.0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ELOHIM -엘텍</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/elohimtextile/category/9b53a18e1dcd4d9c9bb65cb18f065800?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>80</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>107</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>dailyn;;30101.0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>데일리앤77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dailyn/category/8188fadad2a649019cbc73aaa5c54d28?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>80</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>108</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>innershop;;30101.0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>이너샵</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/innershop/category/d41d76eb85404934b776c73e8ea11d8f?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>800.0</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>80</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>109</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>soyouhari;;30101.0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>soyouhari</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/soyouhari/category/ALL?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>80</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>110</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1994goldenage;;30101.0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>goldenage</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/1994goldenage/category/c5156fd02d0b4c658d99a76192b35169?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>80</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>111</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>goldensecret;;30101.0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>golden secret</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/goldensecret/category/82728b8561024f5dbb6f2d69370cc2d2?st=POPULAR&amp;free=false&amp;dt=LIST&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>80</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>gyulfactory;;30101.0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>gyul factory</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/gyulfactory/category/0878de68d14a4be29614582acfa75540?st=RECENT&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>80</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>113</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>devel_luv;;30201.0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>디벨럽</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/devel_luv/category/167918581f55499c8335e0cfa5b56495?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>74</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>114</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>simply-closet;;30201.0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>심플리클로젯</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/simply-closet/category/012022281a8c439f99efb5ceb35b99a7?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>80</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>115</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>feincloset;;30201.0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>파인클로젯</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/feincloset/category/187abf4f7ce64939bc5eabf71292f32c?st=RECENT&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>80</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>116</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ujmall;;30201.0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>유제이몰</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/ujmall/category/439bacd9fe2f4682805bdfc3e5036bac?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>68</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>117</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>lock2359;;30201.0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>샵타임 락</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/lock2359/category/b52ab669b19b41afaf95f6101c69c547?st=RECENT&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>382.0</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>80</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>118</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>cocobkids;;30301.0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>코코비</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/cocobkids/category/7126dfa9b4b8408ba482166a2660f10b?st=RECENT&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>80</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>119</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>kongjiknit;;30301.0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>콩지니트</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/kongjiknit/category/beca070e6cef4d4789637aa2392f43ee?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>80</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>120</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>soyubebe;;30301.0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>소유베베</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/soyubebe/category/211cb6228d9e4eddb3d46c8af113c1e5?st=RECENT&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>80</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>121</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>estcompany;;601.0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VENDICT</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/estcompany/category/2a2e92875de04e5fb98bef40652e63ea?st=TOTALSALE&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>80</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>122</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>kmmotors;;601.0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>KMMOTORS</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/kmmotors/category/ef5c1d7d0e57400aabd00d03a3f8605e?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>80</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>123</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>sosonot;;603.0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>소소낫</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/sosonot/category/6950f29cc7e34228b68f1d51d4d7a5ac?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>80</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>124</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>attamammabebe;;605.0</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>앳홈리빙</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/attamammabebe/category/ALL?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>59</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>125</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>officecore;;606.0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>오피스코아</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/officecore/category/81539a86c0fc4852a26e2f0512a77e27?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>80</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>126</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>3rdbsm;;607.0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>퍼피가드</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/3rdbsm/category/4b7118e66e0043ea94f17907aacd1ad5?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>80</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>127</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>doghoney;;607.0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>개꿀이냥</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/doghoney/category/3122369d095949f6a64d94c86452a695?st=TOTALSALE&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>80</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>128</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>illusionflower;;609.0</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>몽화</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/illusionflower/category/287f0f11d95d42d9866e8932d429455a?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>65</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>129</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>easylife24;;609.0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>LG 생활건강</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/easylife24/category/6d4abbd6d3374408a1e47b8292d08747?st=REVIEW&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>80</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>130</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>dog1007;;610.0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>도그독</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dog1007/category/ALL?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>14</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>131</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>store-ab;;610.0</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>AB 에이비</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/store-ab/category/ab38272062fd4d50abb5b648a912add4?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>20</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>132</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>todaylivinglab;;610.0</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>순수백과</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/todaylivinglab/category/877627c160814c498233125845d19686?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>8</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>133</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>royalwater;;610.0</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>로얄워트 니치향수</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/royalwater/category/21ac855687ce4813821ecd4a0184798a?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>10</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>134</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>pest7;;611.0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>PEST 7</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/pest7/category/bc9bbc0e99d243599683acfdf8ab52d1?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>80</v>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>135</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>rotihome;;612.0</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>로티홈시스</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/rotihome/category/ALL?st=POPULAR&amp;free=false&amp;dt=LIST&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>80</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>136</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>stylehair;;40101.0</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>365 HAIR SHOP</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/stylehair/category/9d7027ddd28a44b994a0c53655ac457b?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>39</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>137</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>labellabeauty;;40101.0</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>LABELLA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/labellabeauty/category/46659c908e51448985413b230b203fb4?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>80</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>138</v>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>sohee610;;40101.0</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>샤오시뷰티</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/sohee610/category/2a7104028e65405a95c6829d8f72f8aa?cp=2</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>80</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>139</v>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>louis95;;50301.0</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>루이유통</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/louis95/category/ALL?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>80</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>140</v>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>thessagun;;50301.0</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>더싸군</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/thessagun/category/ALL?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>16</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>141</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>riceland;;50301.0</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>라이스나라&amp;푸드홀릭</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/riceland/category/ALL?st=LOWPRICE&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>80</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>142</v>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>gpfood;;50301.0</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>곰표유통</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/gpfood/category/ALL?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>80</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>143</v>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>hsfood;;50301.0</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>쿡러기연구소</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/hsfood/category/2d394f7b85cc452ea1d52920a713bdac?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>8</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>144</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>paracosmetic;;50301.0</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>파라잭</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/paracosmetic/category/6c7cb9038d884583b2b40ee82812b973?st=REVIEW&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>80</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>145</v>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>singsongonlineshop;;50301.0</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>신송식품</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/singsongonlineshop/category/c9dae13b79be45afb025ceffb9a747ba?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>47</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>146</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>jinhanfood;;50301.0</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>진한식품</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/jinhanfood/category/386c79d1d11948d98a867477b37b7823?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>47</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>147</v>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>hangilro_food;;50301.0</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>건강한 음식 한길로</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/hangilro_food/category/ALL?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>17</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>148</v>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>5anda;;50301.0</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>엄마가 오란다</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/5anda/category/ALL?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>149</v>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>locally;;50301.0</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>서가</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/locally/category/de877323daac4a398ceef18d51ec7fd0?st=TOTALSALE&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>13</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>150</v>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>cookieall;;50301.0</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>과자몰</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/cookieall/category/948a5d6b30604639857fe9827d1a3fe6?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>80</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>151</v>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>mjsanmaeul;;50301.0</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>도라지청년</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/mjsanmaeul/category/142fef0af5544e14aaa7e10dab149683?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>16</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>152</v>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2016bdg;;50301.0</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>버들골</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/2016bdg/category/9ee5cefd868244359bced54252b82c4e?st=POPULAR&amp;free=false&amp;dt=GALLERY&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>153</v>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>nan;;50301.0</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>롯데제과몰</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://brand.naver.com/lotteconf/category/623da032f78742adb93e7d6f280fda71?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>80</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>154</v>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>mjj3550;;50301.0</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>무진장한과</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/mjj3550/category/466b2de6c3324113925e23ee7dda4c97?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>32</v>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>155</v>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>haitaimall;;50301.0</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>해태제과</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/haitaimall/category/ec3aa335eeb146788536f9b809923045?st=TOTALSALE&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>75</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>156</v>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>onecenti_market;;50301.0</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>고래상회</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/onecenti_market/category/eabf4cd76a8b4b0ea8f7ab55cfe4398c?cp=1</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>22</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>157</v>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>hangjinjerky;;50301.0</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>항진육포</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/hangjinjerky/category/181c8acb704c48e28ab91109af0618e6?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>6</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>158</v>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>kojoobu_jerky;;50301.0</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>코주부육포</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/kojoobu_jerky/category/ALL?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>20</v>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>159</v>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>yukpo1993;;50301.0</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>육포1993</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/yukpo1993/category/a98d9bde8a304ceca31dc6c02772bce1?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>899.0</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>20</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>160</v>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>thekbbio;;50101.0</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>바이탈타임</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/thekbbio/category/ecdc1cc7b3cb45ff81bf426e3e4a5837?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>12</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>161</v>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>divinebio;;50101.0</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>디바인바이오</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/divinebio/category/c83701e52ee7445bb8c0b540d944cdd0?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>71</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>162</v>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>grimeal;;50101.0</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>그리밀</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/grimeal/category/6bf64d8f0fb5482391f1523836b99664?st=POPULAR&amp;free=false&amp;dt=GALLERY&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>20</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>163</v>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>kbhkcare;;50101.0</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>한국생활건강</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/kbhkcare/category/eb64025ca2594195af5e61af921c82ef?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>43</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>164</v>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>nuteat;;50101.0</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>뉴트잇</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/nuteat/category/d6a51afbe9844c13b8561eaed44f747c?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>7</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>165</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>chagain;;50101.0</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>멜로우네이쳐</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/chagain/category/d319218e2b6748d1b0083d244983e8d0?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>80</v>
+      </c>
+      <c r="H69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>166</v>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>mohyang;;nan</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>지리산 모향골</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/mohyang/category/f4deedfec34945d79b11568f8b6ea4ad?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>167</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>honeyxhoney;;nan</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>허니바이허니</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/honeyxhoney/category/67c3803475a14bf1a89929d1cf3fac8d?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>168</v>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>honeybee_farm;;nan</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>대암산 꿀벌농장</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/honeybee_farm/products/2136519788</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>169</v>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>nandalife;;50101.0</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>난다라이프</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/nandalife/category/ALL?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>39</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>170</v>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>thezac;;50101.0</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>더작</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/thezac/category/6bf7c56372d84faa882e23e1bea47a33?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>31</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>171</v>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>hyeinseo;;50101.0</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>혜인서</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/hyeinseo/category/b7488304739c4ec7901652e32d862eab?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>36</v>
+      </c>
+      <c r="H75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>172</v>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>jydu;;50101.0</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>자연닮음</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/jydu/category/d691bf56119a41b0ae119f803ba74231?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>80</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>173</v>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>goreda;;50101.0</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>고르다선식</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/goreda/category/5c595a7eb5e343949e8074295d8093cf?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>66</v>
+      </c>
+      <c r="H77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>174</v>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>_harinmill_;;50101.0</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>하린이네산지방앗간</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/_harinmill_/category/ALL?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>419.0</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>6</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>175</v>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>everydaybeauty;;nan</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>에브리데이뷰티</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/everydaybeauty/category/bac436616dc04fa28de773b1704b145c?st=REVIEW&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>176</v>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>zomby77;;nan</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>진쓰몰</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/zomby77/category/50000002?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>177</v>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>onlinestore1;;40401.0</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>립스틱</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/onlinestore1/category/ALL?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>80</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>178</v>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>obbaobba;;nan</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>핫딜오빠</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/obbaobba/category/c3731b551f1a4449acc4c0897b8e6c14?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>179</v>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>redbalm;;40401.0</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>레드밤</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/redbalm/category/2e53f2dc52304da2a7f07a3591e62ff9?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>80</v>
+      </c>
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>180</v>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>sky007;;40401.0</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>스카이007</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/sky007/category/429e044f90514276abca224694ff74f8?cp=1</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>64</v>
+      </c>
+      <c r="H84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>181</v>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>lkbeautyshop;;40401.0</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>엘케이뷰티</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/lkbeautyshop/category/ALL?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>80</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>182</v>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>onniippo;;40401.0</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>온니이뽀</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/onniippo/category/0000724bfb8b4c37898b2d1eec952304?st=TOTALSALE&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>80</v>
+      </c>
+      <c r="H86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>183</v>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>tga4;;40401.0</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>정품4</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/tga4/category/ALL?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>80</v>
+      </c>
+      <c r="H87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>184</v>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>tank119;;nan</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>명품코스메틱</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/tank119/category/50000002?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>185</v>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>forencos1988;;40401.0</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>포렌코즈</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/forencos1988/category/ALL?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>41</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>186</v>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>or_refreshingdegree;;40401.0</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>오늘도룰루랄라</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/or_refreshingdegree/category/72cced0f288b4c14a6642288ad2c2b69?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>80</v>
+      </c>
+      <c r="H90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>187</v>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>company-dh;;40401.0</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>뿌띠몰</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/company-dh/category/1c2a98b3d335454e86de262da8c3f81c?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>80</v>
+      </c>
+      <c r="H91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>188</v>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>babacos;;40501.0</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>바바코스</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/babacos/category/ALL?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>80</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>189</v>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ckdhcbeauty;;40501.0</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>종근당건강 화장품</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/ckdhcbeauty/category/aaac33a0c9694245babe458481fdcebc?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>801.0</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>56</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>190</v>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>self1004;;40601.0</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>셀프천사</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/self1004/category/1f4cdd0ffa0e4365b19627ade96cd463?st=POPULAR&amp;free=false&amp;dt=IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>66</v>
+      </c>
+      <c r="H94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>191</v>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>castleball;;40601.0</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>캐슬볼</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/castleball/category/50000201?st=POPULAR&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>80</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>192</v>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>coively;;30101.0</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>코이블리</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/coively/category/65417ebbc8064ffb95e4a72fece908e6?st=RECENT&amp;free=false&amp;dt=BIG_IMAGE&amp;page=1&amp;size=80</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>80</v>
+      </c>
+      <c r="H96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>193</v>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>nan;;nan</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4579.0</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>